--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704466.0088250667</v>
+        <v>707785.5550979716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.1455886079333</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>51.16769109581786</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>104.6224667287184</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,61 +1145,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>72.55971260501174</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>7.106574134391062</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1367,26 +1367,26 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>51.18204653170356</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>152.1128264302024</v>
       </c>
     </row>
     <row r="13">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>8.438698031532754</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>105.3690580549763</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>91.01634947177179</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>176.3715233222389</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2327,64 +2327,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.91642501047005</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>182.9086067175423</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2564,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,28 +2634,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>33.31194652668776</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>40.47627913313517</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,19 +2880,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>53.49507230234272</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.7833678227963</v>
+        <v>130.6057506315558</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,58 +3199,58 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,26 +3263,26 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>23.17777261684317</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>60.09118670082915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>141.3598116963804</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>185.6886020115828</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F41" t="n">
-        <v>171.0294181666926</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>107.0227426068962</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.4076324647072</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,31 +3974,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4337,7 +4337,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4577,10 +4577,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4607,10 +4607,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340.5829991502264</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C6" t="n">
-        <v>166.1299698690994</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>159.1797258111137</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4647,10 +4647,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
         <v>366.5706756325438</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X6" t="n">
-        <v>716.3921184311838</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.7983361702945</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4814,10 +4814,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4847,7 +4847,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>513.308066045118</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C9" t="n">
-        <v>513.308066045118</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
-        <v>513.308066045118</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y9" t="n">
-        <v>513.308066045118</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="C11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="D11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="E11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="F11" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="C11" t="n">
+      <c r="G11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5048,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5084,7 +5084,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.2622584721643</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C12" t="n">
-        <v>271.8092291910373</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>271.8092291910373</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>271.8092291910373</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>271.8092291910373</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>236.1051990630351</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>28.51141680214578</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.1051990630351</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C15" t="n">
-        <v>813.547440347533</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D15" t="n">
-        <v>664.6130306862817</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,22 +5358,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5397,10 +5397,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5546,19 +5546,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,16 +5598,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5695,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.216849647356</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C21" t="n">
-        <v>111.216849647356</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D21" t="n">
-        <v>111.216849647356</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>111.216849647356</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>111.216849647356</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>872.2223827727877</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>698.8050382234566</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>698.8050382234566</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="U24" t="n">
-        <v>470.5814199598456</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.6603993626354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6603993626354</v>
+        <v>688.4345967823949</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6603993626354</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>191.6603993626354</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>191.6603993626354</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>52.92957394525087</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>52.92957394525087</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6309,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>399.5118995681682</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>191.6603993626354</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y27" t="n">
-        <v>191.6603993626354</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="28">
@@ -6412,10 +6412,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y29" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>694.6722890434539</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C30" t="n">
-        <v>520.2192597623269</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D30" t="n">
-        <v>371.2848501010757</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E30" t="n">
-        <v>212.0473950956202</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
@@ -6686,7 +6686,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>345.004439675971</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X33" t="n">
-        <v>345.004439675971</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.2441409110171</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C36" t="n">
-        <v>728.9050472788936</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7050,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>284.1276524520142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>284.1276524520142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D38" t="n">
-        <v>40.6788758079141</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>311.0032413536665</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>162.0688316924152</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>501.9060370580465</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>501.9060370580465</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>501.9060370580465</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>501.9060370580465</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9060370580465</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
@@ -7415,13 +7415,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7454,7 +7454,7 @@
         <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="E42" t="n">
-        <v>238.668476211275</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F42" t="n">
-        <v>238.668476211275</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G42" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>626.8294255367553</v>
       </c>
-      <c r="O42" t="n">
-        <v>639.4279001397708</v>
-      </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7518,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>622.6697287988719</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>622.6697287988719</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>622.6697287988719</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>415.0759465379826</v>
       </c>
     </row>
     <row r="43">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.1051990630351</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7670,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.668476211275</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C45" t="n">
-        <v>64.21544693014803</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7734,13 +7734,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="46">
@@ -7985,10 +7985,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8067,7 +8067,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8462,13 +8462,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,10 +8781,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9021,10 +9021,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,19 +9246,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,7 +9486,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L24" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,10 +9729,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11151,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>155.3219763666824</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,16 +11382,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,25 +22592,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>318.0899692773253</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>18.44134906598205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22680,13 +22680,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>50.7957934730415</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,28 +22860,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>86.17582606739278</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22917,19 +22917,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>101.150518474759</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,7 +23033,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>100.148786383304</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>150.5385063210099</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23154,7 +23154,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>86.16147063150709</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>53.56986934710199</v>
       </c>
     </row>
     <row r="13">
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8848386932009</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>164.269800956783</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23637,10 +23637,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>100.4039271485011</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23747,13 +23747,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23981,10 +23981,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,10 +24057,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>46.32716769143885</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,10 +24108,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>29.40146188123853</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,25 +24254,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>324.4869424129383</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.241409142173083</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>17.25612197727926</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24452,19 +24452,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,19 +24494,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,28 +24522,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>56.08468632472732</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,16 +24576,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24652,13 +24652,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>168.5437904531102</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24768,19 +24768,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>91.57414009104116</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24920,16 +24920,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24971,7 +24971,7 @@
         <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.74981582707102</v>
+        <v>35.92743301831158</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>143.3554110330242</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>87.3538788638096</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>360.7466147015374</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25439,13 +25439,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>16.28526875902051</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>14.47612668323882</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>211.704423496788</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>235.8466275750188</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>30.32077455631448</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>2.757096230114399</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>92.2655240957564</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>135.7322661159843</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433833.5150460622</v>
+        <v>433833.5150460623</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433833.5150460622</v>
+        <v>433833.5150460625</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460622</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460625</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433833.5150460622</v>
+        <v>433833.5150460623</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>118318.2313761987</v>
       </c>
       <c r="C2" t="n">
-        <v>118318.2313761987</v>
+        <v>118318.2313761988</v>
       </c>
       <c r="D2" t="n">
         <v>118318.2313761987</v>
@@ -26323,7 +26323,7 @@
         <v>118318.2313761987</v>
       </c>
       <c r="F2" t="n">
-        <v>118318.2313761986</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="G2" t="n">
         <v>124620.5043984993</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2779.936874841849</v>
+        <v>3167.578293728213</v>
       </c>
       <c r="C6" t="n">
-        <v>71653.69345653168</v>
+        <v>72041.33487541808</v>
       </c>
       <c r="D6" t="n">
-        <v>71653.69345653165</v>
+        <v>72041.33487541802</v>
       </c>
       <c r="E6" t="n">
-        <v>105281.2934565317</v>
+        <v>105668.934875418</v>
       </c>
       <c r="F6" t="n">
-        <v>105281.2934565316</v>
+        <v>105668.934875418</v>
       </c>
       <c r="G6" t="n">
-        <v>99649.68699042324</v>
+        <v>100058.2601628666</v>
       </c>
       <c r="H6" t="n">
-        <v>109378.7299645904</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="I6" t="n">
-        <v>109378.7299645904</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="J6" t="n">
-        <v>55606.2190743809</v>
+        <v>56014.7922468242</v>
       </c>
       <c r="K6" t="n">
-        <v>109378.7299645903</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="L6" t="n">
-        <v>109378.7299645904</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="M6" t="n">
-        <v>109378.7299645904</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="N6" t="n">
-        <v>109378.7299645904</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
-        <v>105281.2934565316</v>
+        <v>105668.934875418</v>
       </c>
       <c r="P6" t="n">
-        <v>105281.2934565317</v>
+        <v>105668.934875418</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,10 +35501,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35741,10 +35741,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L24" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,10 +36449,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37871,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>12.72573192223796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>707785.5550979716</v>
+        <v>708569.7010360004</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>175.1455886079333</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -899,67 +901,67 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>51.16769109581786</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>80.11569190233641</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>72.55971260501174</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1269,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>152.1128264302024</v>
+        <v>108.0109996132921</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,64 +1618,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>105.3690580549763</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1983,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2138,10 +2140,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>42.55037277817333</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>176.3715233222389</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>17.37254956828075</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>182.9086067175423</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,73 +2475,73 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2573,10 +2575,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>20.02544070929549</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>45.22260214104623</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,26 +2791,26 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2834,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2925,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>33.71010659323005</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="32">
@@ -3041,61 +3043,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>130.6057506315558</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>9.730536548687041</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.17777261684317</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,22 +3353,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>89.09485032920207</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3588,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>141.3598116963804</v>
+        <v>148.4121879909076</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,46 +3669,46 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.4076324647072</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.336946277399601</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>35.95090498785356</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4334,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4419,13 +4421,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4440,19 +4442,19 @@
         <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>370.5697677890668</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V3" t="n">
-        <v>370.5697677890668</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="W3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C6" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D6" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E6" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F6" t="n">
-        <v>159.1797258111137</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4653,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4689,7 +4691,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y6" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4814,10 +4816,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4847,7 +4849,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D11" t="n">
         <v>639.2227743377304</v>
@@ -5084,7 +5086,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.6485894889752</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
         <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>345.2979091154422</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>191.6485894889752</v>
+        <v>505.3755756808262</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,10 +5287,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5388,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>715.637985778398</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,22 +5618,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
         <v>19.28114311021272</v>
@@ -5695,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X21" t="n">
-        <v>340.2687303644548</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y21" t="n">
-        <v>340.2687303644548</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>362.4348659156472</v>
+        <v>183.363730950278</v>
       </c>
       <c r="C24" t="n">
-        <v>362.4348659156472</v>
+        <v>183.363730950278</v>
       </c>
       <c r="D24" t="n">
-        <v>362.4348659156472</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
-        <v>362.4348659156472</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>605.8836425597472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>605.8836425597472</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>605.8836425597472</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W24" t="n">
-        <v>362.4348659156472</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X24" t="n">
-        <v>362.4348659156472</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y24" t="n">
-        <v>362.4348659156472</v>
+        <v>183.363730950278</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F26" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>862.8876260635219</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C27" t="n">
-        <v>688.4345967823949</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>744.9604148592382</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>516.7367965956273</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="W27" t="n">
-        <v>862.8876260635219</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="X27" t="n">
-        <v>862.8876260635219</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y27" t="n">
-        <v>862.8876260635219</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="28">
@@ -6412,19 +6414,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,28 +6484,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.0571555106362</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>701.7829245265909</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>701.7829245265909</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>701.7829245265909</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>494.022625761637</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5698337361135</v>
+        <v>29.1099679068663</v>
       </c>
       <c r="C33" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W33" t="n">
-        <v>298.4948343740486</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X33" t="n">
-        <v>298.4948343740486</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y33" t="n">
-        <v>298.4948343740486</v>
+        <v>197.3253049269343</v>
       </c>
     </row>
     <row r="34">
@@ -6895,7 +6897,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.5846883638847</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>346.8642611912823</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>200.3297032181673</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>200.3297032181673</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="37">
@@ -7084,7 +7086,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C39" t="n">
-        <v>311.0032413536665</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D39" t="n">
-        <v>162.0688316924152</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7421,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>268.5413885648676</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>622.6697287988719</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U42" t="n">
-        <v>622.6697287988719</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
-        <v>622.6697287988719</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>415.0759465379826</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>415.0759465379826</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>415.0759465379826</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,43 +7657,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>52.75547299733876</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>233.4664686820119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8067,7 +8069,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,7 +8303,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11069,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22635,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22680,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>50.7957934730415</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>136.9980265978828</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22787,7 +22789,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.17582606739278</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9.280940949078669</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>100.148786383304</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23157,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="12">
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>53.56986934710199</v>
+        <v>97.67169616401223</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034424</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23628,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818786</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>100.4039271485011</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23935,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,10 +24028,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>104.8946927864654</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>29.40146188123853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24254,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>130.072515996358</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>17.25612197727926</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24461,10 +24463,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>154.9421265537754</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,10 +24815,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>199.0904805561952</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24862,7 +24864,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3759156176843</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24968,22 +24970,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.92743301831158</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>162.9779624396287</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25205,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.3554110330242</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,22 +25241,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>23.14059390729439</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,7 +25402,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25476,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>16.28526875902051</v>
+        <v>9.232892464493375</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25529,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.704423496788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25716,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25758,10 +25760,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>2.757096230114399</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>344.1125915454646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25953,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>135.7322661159843</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>101.3926121753571</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,13 +26003,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433833.5150460625</v>
+        <v>433833.5150460623</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460625</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433833.5150460622</v>
+        <v>433833.5150460625</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433833.5150460625</v>
+        <v>433833.5150460623</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26316,7 @@
         <v>118318.2313761987</v>
       </c>
       <c r="C2" t="n">
-        <v>118318.2313761988</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="D2" t="n">
         <v>118318.2313761987</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3167.578293728213</v>
+        <v>3167.578293728184</v>
       </c>
       <c r="C6" t="n">
-        <v>72041.33487541808</v>
+        <v>72041.33487541805</v>
       </c>
       <c r="D6" t="n">
         <v>72041.33487541802</v>
@@ -26534,7 +26536,7 @@
         <v>105668.934875418</v>
       </c>
       <c r="G6" t="n">
-        <v>100058.2601628666</v>
+        <v>100058.2601628665</v>
       </c>
       <c r="H6" t="n">
         <v>109787.3031370337</v>
@@ -26543,19 +26545,19 @@
         <v>109787.3031370337</v>
       </c>
       <c r="J6" t="n">
-        <v>56014.7922468242</v>
+        <v>56014.79224682422</v>
       </c>
       <c r="K6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="L6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="M6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="O6" t="n">
         <v>105668.934875418</v>
@@ -34702,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34787,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,7 +35023,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35969,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37789,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>708569.7010360004</v>
+        <v>604337.2027725569</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
@@ -727,7 +727,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>141.3109152734908</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>114.6969565630368</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.11569190233641</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,73 +1135,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
@@ -1277,10 +1277,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>181.0201173812374</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>104.1252322629233</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>108.0109996132921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>205.5178444382804</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>86.21539897205307</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.94281254009715</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>42.55037277817333</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2250,43 +2250,43 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2326,64 +2326,64 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>17.37254956828075</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>45.22260214104623</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,22 +2800,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>81.00537765493296</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>123.4225424657643</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>33.71010659323005</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>9.730536548687041</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>36.52847303402358</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>89.09485032920207</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3441,46 +3441,46 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>148.4121879909076</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>86.21539897205307</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0201173812374</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>205.5178444382804</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>35.95090498785356</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4366,16 +4366,16 @@
         <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X2" t="n">
-        <v>255.5008658160403</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4412,22 +4412,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>339.8907214957869</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>132.2969392348976</v>
+        <v>578.163550049956</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>578.163550049956</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>370.5697677890668</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4682,16 +4682,16 @@
         <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W6" t="n">
-        <v>305.7142837842288</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X6" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4764,13 +4764,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4810,10 +4810,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4886,46 +4886,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
         <v>16.44142755506243</v>
@@ -4980,19 +4980,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
         <v>16.44142755506243</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5044,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>505.3755756808262</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C12" t="n">
-        <v>505.3755756808262</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D12" t="n">
-        <v>505.3755756808262</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E12" t="n">
-        <v>505.3755756808262</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8410177077111</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5156,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>505.3755756808262</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5217,13 +5217,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
         <v>16.44142755506243</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="15">
@@ -5363,40 +5363,40 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
         <v>16.44142755506243</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,25 +5539,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V17" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W17" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
         <v>506.1786963984129</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>237.752183214564</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C23" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D23" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>183.363730950278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>183.363730950278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>391.2152311558108</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>183.363730950278</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>183.363730950278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6189,10 +6189,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6335,22 +6335,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>744.9604148592382</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>516.7367965956273</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>281.5846883638847</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>281.5846883638847</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,19 +6414,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>325.807288741569</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C30" t="n">
-        <v>325.807288741569</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>701.7829245265909</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>701.7829245265909</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>701.7829245265909</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>494.022625761637</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.1099679068663</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>927.1597080015215</v>
       </c>
       <c r="U33" t="n">
-        <v>432.4774131586771</v>
+        <v>698.9360897379105</v>
       </c>
       <c r="V33" t="n">
-        <v>197.3253049269343</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="W33" t="n">
-        <v>197.3253049269343</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="X33" t="n">
-        <v>197.3253049269343</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y33" t="n">
-        <v>197.3253049269343</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="34">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U35" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V35" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W35" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="X35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>655.0361258579891</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C36" t="n">
-        <v>655.0361258579891</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="D36" t="n">
-        <v>506.1017161967378</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="E36" t="n">
-        <v>346.8642611912823</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="F36" t="n">
-        <v>200.3297032181673</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="G36" t="n">
-        <v>200.3297032181673</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X36" t="n">
-        <v>655.0361258579891</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.0361258579891</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>582.8795121963512</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>408.4264829152243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>259.492073253973</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>790.6398109613051</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>582.8795121963512</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7356,19 +7356,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G41" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="G41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7441,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7502,7 +7502,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7514,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>103.5276891429948</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>103.5276891429948</v>
       </c>
     </row>
     <row r="43">
@@ -7590,22 +7590,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>52.75547299733876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7766,13 +7766,13 @@
         <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11150,10 +11150,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.5828422233929</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
@@ -22615,7 +22615,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="3">
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>91.4896718759345</v>
       </c>
       <c r="W3" t="n">
-        <v>136.9980265978828</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>9.280940949078669</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,13 +23023,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>200.9102526910243</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>318.0899692773254</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
@@ -23165,10 +23165,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>24.75286782224003</v>
+        <v>124.9107019748832</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>43.31983330171548</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>97.67169616401223</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23554,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>156.7228403034424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>180.7200942177732</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>51.78046976818786</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>165.4795841888665</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>10.45382031131793</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24053,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>104.8946927864654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>151.7265451152921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24253,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24290,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>130.072515996358</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24575,19 +24575,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>154.9421265537754</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,22 +24688,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>142.0904719091984</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>24.02252309887449</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>199.0904805561952</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,22 +24967,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>162.9779624396287</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>163.636255660798</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>23.14059390729439</v>
+        <v>14.46898371665554</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,10 +25441,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>9.232892464493375</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>86.49310001626267</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>20.42353764269441</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,10 +25912,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>101.3926121753571</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -26006,10 +26006,10 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460622</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460622</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433833.5150460625</v>
+        <v>433833.5150460622</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433833.5150460625</v>
+        <v>433833.5150460623</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460624</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433833.5150460623</v>
+        <v>433833.5150460622</v>
       </c>
     </row>
   </sheetData>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3167.578293728184</v>
+        <v>-9470.583861132318</v>
       </c>
       <c r="C6" t="n">
-        <v>72041.33487541805</v>
+        <v>59403.17272055752</v>
       </c>
       <c r="D6" t="n">
-        <v>72041.33487541802</v>
+        <v>59403.17272055754</v>
       </c>
       <c r="E6" t="n">
-        <v>105668.934875418</v>
+        <v>93030.77272055751</v>
       </c>
       <c r="F6" t="n">
-        <v>105668.934875418</v>
+        <v>93030.77272055751</v>
       </c>
       <c r="G6" t="n">
-        <v>100058.2601628665</v>
+        <v>87840.24954282606</v>
       </c>
       <c r="H6" t="n">
-        <v>109787.3031370337</v>
+        <v>97569.29251699317</v>
       </c>
       <c r="I6" t="n">
-        <v>109787.3031370337</v>
+        <v>97569.29251699318</v>
       </c>
       <c r="J6" t="n">
-        <v>56014.79224682422</v>
+        <v>43796.78162678375</v>
       </c>
       <c r="K6" t="n">
-        <v>109787.3031370336</v>
+        <v>97569.29251699317</v>
       </c>
       <c r="L6" t="n">
-        <v>109787.3031370336</v>
+        <v>97569.29251699316</v>
       </c>
       <c r="M6" t="n">
-        <v>109787.3031370336</v>
+        <v>97569.29251699317</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370336</v>
+        <v>97569.29251699317</v>
       </c>
       <c r="O6" t="n">
-        <v>105668.934875418</v>
+        <v>93030.77272055754</v>
       </c>
       <c r="P6" t="n">
-        <v>105668.934875418</v>
+        <v>93030.77272055752</v>
       </c>
     </row>
   </sheetData>
@@ -34704,10 +34704,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>148.1480627106907</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O15" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,7 +36922,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37870,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O42" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="O42" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
